--- a/orchid_result/final_version/Sp-table1_&_2.xlsx
+++ b/orchid_result/final_version/Sp-table1_&_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\锈湖旅馆不养闲人\小论文\整合-小论文图集\4_FINALL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Project_code\Data-and-Result-for-Species-diversification-history-determines-epiphytes-evolution-in-Orchids-\orchid_result\final_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A7DF7A-542C-4986-B36B-D3987AAFCC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAB75B6-4D56-49E1-922E-986EAA0F188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Remain Model</t>
   </si>
@@ -81,109 +81,111 @@
     <t>&lt;0.01</t>
   </si>
   <si>
-    <t xml:space="preserve">Pollinator Attraction </t>
-  </si>
-  <si>
-    <t>LF~CR+PV+PHY</t>
-  </si>
-  <si>
-    <t>Pollinator Vector</t>
-  </si>
-  <si>
-    <t>Climate Region</t>
-  </si>
-  <si>
     <t>Consider Three Factors (without phylogeny)</t>
   </si>
   <si>
-    <t>Attraction Strategies</t>
-  </si>
-  <si>
     <t>LF~CR+PV</t>
   </si>
   <si>
-    <t>Pollination Vectors</t>
-  </si>
-  <si>
-    <t>Life Form</t>
-  </si>
-  <si>
-    <t>LF~PHY+1</t>
-  </si>
-  <si>
     <t>LF~1</t>
   </si>
   <si>
     <t>Tropical</t>
   </si>
   <si>
-    <t>CR_Tro~PHY+1</t>
-  </si>
-  <si>
     <t>CR_Tro~1</t>
   </si>
   <si>
     <t>Subtropical</t>
   </si>
   <si>
-    <t>CR_Subtro~PHY+1</t>
-  </si>
-  <si>
     <t>CR_Subtro~1</t>
   </si>
   <si>
     <t>Temperate</t>
   </si>
   <si>
-    <t>CR_Tem~PHY+1</t>
-  </si>
-  <si>
     <t>CR_Tem~1</t>
   </si>
   <si>
-    <t>Pollinator Attraction</t>
-  </si>
-  <si>
-    <t>Pollinatior Vector</t>
-  </si>
-  <si>
-    <t>PV~PHY+1</t>
-  </si>
-  <si>
     <t>PV~1</t>
   </si>
   <si>
-    <t>PA~PHY+1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PA~1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LF~CR+PV+PA+PHY</t>
-  </si>
-  <si>
     <t>LF~CR+PV+PA</t>
   </si>
   <si>
-    <t>LF~CR+PA+PHY</t>
-  </si>
-  <si>
-    <t>LF~PV+PA+PHY</t>
-  </si>
-  <si>
     <t>LF~CR+PA</t>
   </si>
   <si>
     <t>LF~PV+PA</t>
+  </si>
+  <si>
+    <t>Pollinator Attraction Strategies</t>
+  </si>
+  <si>
+    <t>Pollination Vector Types</t>
+  </si>
+  <si>
+    <t>Climate Regions</t>
+  </si>
+  <si>
+    <t>Pollinator Attraction Strategies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life Forms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF~CR+PV+PA,Phylo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF~CR+PV,Phylo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF~CR+PA,Phylo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF~PV+PA,Phylo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF~1,Phylo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR_Tro~1,Phylo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR_Subtro~1,Phylo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR_Tem~1,Phylo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA~1,Phylo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PV~1,Phylo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +212,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -261,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,14 +286,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,18 +654,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.0703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.0703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.0703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.0703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.0703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -673,24 +689,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>0.62</v>
@@ -703,14 +719,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
+      <c r="A4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>0.23899999999999999</v>
@@ -723,14 +739,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
+      <c r="A5" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -743,14 +759,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
+      <c r="A6" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>3.4000000000000002E-2</v>
@@ -763,24 +779,24 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
+      <c r="A8" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
         <v>0.249</v>
@@ -793,14 +809,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
+      <c r="A9" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>3.0000000000000001E-3</v>
@@ -813,14 +829,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
+      <c r="A10" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4">
         <v>0.47599999999999998</v>
@@ -847,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7646625D-5C1F-4FBB-A378-C3E19B54A524}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -883,13 +899,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>0.8629</v>
@@ -903,13 +919,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>0.73209999999999997</v>
@@ -923,13 +939,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>0.29049999999999998</v>
@@ -943,13 +959,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
         <v>0.67600000000000005</v>
@@ -962,14 +978,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
+      <c r="A6" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3">
         <v>0.45190000000000002</v>
@@ -982,14 +998,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
+      <c r="A7" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5">
         <v>0.17150000000000001</v>
